--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>788.465121135857</v>
+        <v>1023.235332970984</v>
       </c>
       <c r="R2">
-        <v>788.465121135857</v>
+        <v>9209.11799673886</v>
       </c>
       <c r="S2">
-        <v>0.01787086469730859</v>
+        <v>0.02067065358645799</v>
       </c>
       <c r="T2">
-        <v>0.01787086469730859</v>
+        <v>0.02067065358645799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H3">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I3">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J3">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>938.4465712209225</v>
+        <v>1125.010913008882</v>
       </c>
       <c r="R3">
-        <v>938.4465712209225</v>
+        <v>10125.09821707994</v>
       </c>
       <c r="S3">
-        <v>0.0212702518480238</v>
+        <v>0.02272664959317903</v>
       </c>
       <c r="T3">
-        <v>0.0212702518480238</v>
+        <v>0.02272664959317904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H4">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I4">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J4">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>342.8000494051828</v>
+        <v>453.8062307584278</v>
       </c>
       <c r="R4">
-        <v>342.8000494051828</v>
+        <v>4084.25607682585</v>
       </c>
       <c r="S4">
-        <v>0.007769694735926254</v>
+        <v>0.009167462351155613</v>
       </c>
       <c r="T4">
-        <v>0.007769694735926254</v>
+        <v>0.009167462351155616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H5">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I5">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J5">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>446.2539307997664</v>
+        <v>623.5735401924218</v>
       </c>
       <c r="R5">
-        <v>446.2539307997664</v>
+        <v>5612.161861731795</v>
       </c>
       <c r="S5">
-        <v>0.01011451667827245</v>
+        <v>0.01259697766453526</v>
       </c>
       <c r="T5">
-        <v>0.01011451667827245</v>
+        <v>0.01259697766453526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H6">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J6">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>6673.988842802202</v>
+        <v>7255.155574898681</v>
       </c>
       <c r="R6">
-        <v>6673.988842802202</v>
+        <v>65296.40017408813</v>
       </c>
       <c r="S6">
-        <v>0.1512685195627245</v>
+        <v>0.1465633591533168</v>
       </c>
       <c r="T6">
-        <v>0.1512685195627245</v>
+        <v>0.1465633591533168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H7">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J7">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>7943.51173945618</v>
+        <v>7976.785920438598</v>
       </c>
       <c r="R7">
-        <v>7943.51173945618</v>
+        <v>71791.07328394738</v>
       </c>
       <c r="S7">
-        <v>0.1800427434415881</v>
+        <v>0.1611412088517054</v>
       </c>
       <c r="T7">
-        <v>0.1800427434415881</v>
+        <v>0.1611412088517054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H8">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J8">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>2901.642246072196</v>
+        <v>3217.671144575426</v>
       </c>
       <c r="R8">
-        <v>2901.642246072196</v>
+        <v>28959.04030117884</v>
       </c>
       <c r="S8">
-        <v>0.06576683557650477</v>
+        <v>0.06500104466832994</v>
       </c>
       <c r="T8">
-        <v>0.06576683557650477</v>
+        <v>0.06500104466832995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H9">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J9">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>3777.3310136075</v>
+        <v>4421.390564524851</v>
       </c>
       <c r="R9">
-        <v>3777.3310136075</v>
+        <v>39792.51508072366</v>
       </c>
       <c r="S9">
-        <v>0.08561465770848703</v>
+        <v>0.08931770608855505</v>
       </c>
       <c r="T9">
-        <v>0.08561465770848703</v>
+        <v>0.08931770608855505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H10">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J10">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>2720.764029985982</v>
+        <v>3222.169268984298</v>
       </c>
       <c r="R10">
-        <v>2720.764029985982</v>
+        <v>28999.52342085868</v>
       </c>
       <c r="S10">
-        <v>0.06166716136173338</v>
+        <v>0.06509191249555264</v>
       </c>
       <c r="T10">
-        <v>0.06166716136173338</v>
+        <v>0.06509191249555267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H11">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J11">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>3238.306434358582</v>
+        <v>3542.66069042397</v>
       </c>
       <c r="R11">
-        <v>3238.306434358582</v>
+        <v>31883.94621381573</v>
       </c>
       <c r="S11">
-        <v>0.07339745866434398</v>
+        <v>0.0715662463428562</v>
       </c>
       <c r="T11">
-        <v>0.07339745866434398</v>
+        <v>0.07156624634285622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H12">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J12">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>1182.903363633169</v>
+        <v>1429.036355280811</v>
       </c>
       <c r="R12">
-        <v>1182.903363633169</v>
+        <v>12861.3271975273</v>
       </c>
       <c r="S12">
-        <v>0.02681095890586279</v>
+        <v>0.02886834974384312</v>
       </c>
       <c r="T12">
-        <v>0.02681095890586279</v>
+        <v>0.02886834974384313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H13">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J13">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>1539.892647896409</v>
+        <v>1963.633812688857</v>
       </c>
       <c r="R13">
-        <v>1539.892647896409</v>
+        <v>17672.70431419971</v>
       </c>
       <c r="S13">
-        <v>0.03490225809772412</v>
+        <v>0.03966789750593775</v>
       </c>
       <c r="T13">
-        <v>0.03490225809772412</v>
+        <v>0.03966789750593776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H14">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J14">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>3643.359587451786</v>
+        <v>4202.447182905416</v>
       </c>
       <c r="R14">
-        <v>3643.359587451786</v>
+        <v>37822.02464614874</v>
       </c>
       <c r="S14">
-        <v>0.08257814389708951</v>
+        <v>0.08489477164652148</v>
       </c>
       <c r="T14">
-        <v>0.08257814389708951</v>
+        <v>0.0848947716465215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H15">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J15">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>4336.397667969733</v>
+        <v>4620.441446626719</v>
       </c>
       <c r="R15">
-        <v>4336.397667969733</v>
+        <v>41583.97301964047</v>
       </c>
       <c r="S15">
-        <v>0.09828611808011573</v>
+        <v>0.0933387867700245</v>
       </c>
       <c r="T15">
-        <v>0.09828611808011573</v>
+        <v>0.0933387867700245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H16">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J16">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>1584.019144410725</v>
+        <v>1863.790913570572</v>
       </c>
       <c r="R16">
-        <v>1584.019144410725</v>
+        <v>16774.11822213515</v>
       </c>
       <c r="S16">
-        <v>0.03590240208334211</v>
+        <v>0.03765094410896171</v>
       </c>
       <c r="T16">
-        <v>0.03590240208334211</v>
+        <v>0.03765094410896172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H17">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J17">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2062.061457931287</v>
+        <v>2561.028516975879</v>
       </c>
       <c r="R17">
-        <v>2062.061457931287</v>
+        <v>23049.2566527829</v>
       </c>
       <c r="S17">
-        <v>0.0467374146609528</v>
+        <v>0.0517360294290676</v>
       </c>
       <c r="T17">
-        <v>0.0467374146609528</v>
+        <v>0.0517360294290676</v>
       </c>
     </row>
   </sheetData>
